--- a/meta_data_processing/antara_exp/Processing_Pipeline_Full_expression_andHannah.xlsx
+++ b/meta_data_processing/antara_exp/Processing_Pipeline_Full_expression_andHannah.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\network_state_analysis\meta_data_processing\antara_exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperComp-HigleyLab\Documents\Lav\network_state_analysis\meta_data_processing\antara_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17990B33-E139-4CBC-9A6D-EE3F2CB5DBFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24014CA0-BDB0-4D90-B5A8-DE3DB4161D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="465" windowWidth="19185" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processing_Pipeline_Full_expres" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="133">
   <si>
     <t>directory</t>
   </si>
@@ -391,10 +391,37 @@
     <t>Lhx6_23525\Spont1</t>
   </si>
   <si>
-    <t>there is a weird shift between pupil and wheel</t>
-  </si>
-  <si>
-    <t>is goodbadmaybe: good = 3, maybe = 2, bad =1</t>
+    <t>Cohort 4</t>
+  </si>
+  <si>
+    <t>Emx_21155\Spont1</t>
+  </si>
+  <si>
+    <t>Emx_21155\Spont2</t>
+  </si>
+  <si>
+    <t>Emx_21110\Spont1</t>
+  </si>
+  <si>
+    <t>Emx_21110\Spont2</t>
+  </si>
+  <si>
+    <t>Emx_21134\Spont1</t>
+  </si>
+  <si>
+    <t>Emx_21134\Spont2</t>
+  </si>
+  <si>
+    <t>Emx_21104\Spont1</t>
+  </si>
+  <si>
+    <t>Emx_21104\Spont2</t>
+  </si>
+  <si>
+    <t>Emx_21191\Spont1</t>
+  </si>
+  <si>
+    <t>Emx_21191\Spont2</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,9 +1440,6 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1874,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1912,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1947,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2086,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2100,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2176,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2251,11 +2275,8 @@
       <c r="L26">
         <v>3</v>
       </c>
-      <c r="O26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2315,7 @@
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2332,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2371,7 +2392,7 @@
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2410,7 +2431,7 @@
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2448,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -4168,6 +4189,260 @@
       </c>
       <c r="L76" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77">
+        <v>21155</v>
+      </c>
+      <c r="F77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>21155</v>
+      </c>
+      <c r="F78" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>21110</v>
+      </c>
+      <c r="F79" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>21110</v>
+      </c>
+      <c r="F80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>21134</v>
+      </c>
+      <c r="F81" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82">
+        <v>21134</v>
+      </c>
+      <c r="F82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83">
+        <v>21104</v>
+      </c>
+      <c r="F83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84">
+        <v>21104</v>
+      </c>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85">
+        <v>21191</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86">
+        <v>21191</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/meta_data_processing/antara_exp/Processing_Pipeline_Full_expression_andHannah.xlsx
+++ b/meta_data_processing/antara_exp/Processing_Pipeline_Full_expression_andHannah.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperComp-HigleyLab\Documents\Lav\network_state_analysis\meta_data_processing\antara_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24014CA0-BDB0-4D90-B5A8-DE3DB4161D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11FE556-68D6-43F5-846C-38A0B4F386C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="465" windowWidth="19185" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="495" windowWidth="18810" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processing_Pipeline_Full_expres" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="133">
   <si>
     <t>directory</t>
   </si>
@@ -394,34 +394,34 @@
     <t>Cohort 4</t>
   </si>
   <si>
-    <t>Emx_21155\Spont1</t>
-  </si>
-  <si>
-    <t>Emx_21155\Spont2</t>
-  </si>
-  <si>
-    <t>Emx_21110\Spont1</t>
-  </si>
-  <si>
-    <t>Emx_21110\Spont2</t>
-  </si>
-  <si>
-    <t>Emx_21134\Spont1</t>
-  </si>
-  <si>
-    <t>Emx_21134\Spont2</t>
-  </si>
-  <si>
-    <t>Emx_21104\Spont1</t>
-  </si>
-  <si>
-    <t>Emx_21104\Spont2</t>
-  </si>
-  <si>
-    <t>Emx_21191\Spont1</t>
-  </si>
-  <si>
-    <t>Emx_21191\Spont2</t>
+    <t>Control_21155\Spont1</t>
+  </si>
+  <si>
+    <t>Control_21155\Spont2</t>
+  </si>
+  <si>
+    <t>Control_21110\Spont1</t>
+  </si>
+  <si>
+    <t>Control_21110\Spont2</t>
+  </si>
+  <si>
+    <t>Control_21134\Spont1</t>
+  </si>
+  <si>
+    <t>Control_21134\Spont2</t>
+  </si>
+  <si>
+    <t>Control_21104\Spont1</t>
+  </si>
+  <si>
+    <t>Control_21104\Spont2</t>
+  </si>
+  <si>
+    <t>Control_21191\Spont1</t>
+  </si>
+  <si>
+    <t>Control_21191\Spont2</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4195,13 +4195,13 @@
       <c r="A77" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
         <v>22</v>
       </c>
       <c r="E77">
@@ -4210,24 +4210,21 @@
       <c r="F77" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s">
-        <v>19</v>
+      <c r="G77" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
         <v>22</v>
       </c>
       <c r="E78">
@@ -4236,24 +4233,21 @@
       <c r="F78" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s">
-        <v>19</v>
+      <c r="G78" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
         <v>22</v>
       </c>
       <c r="E79">
@@ -4262,24 +4256,21 @@
       <c r="F79" t="s">
         <v>122</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J79" t="s">
-        <v>19</v>
+      <c r="G79" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
         <v>22</v>
       </c>
       <c r="E80">
@@ -4288,24 +4279,21 @@
       <c r="F80" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
         <v>22</v>
       </c>
       <c r="E81">
@@ -4314,24 +4302,21 @@
       <c r="F81" t="s">
         <v>122</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
         <v>22</v>
       </c>
       <c r="E82">
@@ -4340,24 +4325,21 @@
       <c r="F82" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
         <v>22</v>
       </c>
       <c r="E83">
@@ -4366,24 +4348,21 @@
       <c r="F83" t="s">
         <v>122</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
         <v>22</v>
       </c>
       <c r="E84">
@@ -4392,57 +4371,54 @@
       <c r="F84" t="s">
         <v>122</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
         <v>22</v>
       </c>
       <c r="E85">
         <v>21191</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
         <v>22</v>
       </c>
       <c r="E86">
         <v>21191</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" t="s">
         <v>122</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>42</v>
+      <c r="G86" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
